--- a/biology/Médecine/Variabilité_génétique/Variabilité_génétique.xlsx
+++ b/biology/Médecine/Variabilité_génétique/Variabilité_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Variabilit%C3%A9_g%C3%A9n%C3%A9tique</t>
+          <t>Variabilité_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variabilité génétique est soit la présence, soit la génération de différences génétiques. Elle est définie comme « la formation d'individus de génotype différent, ou la présence d'individus génotypiquement différents, contrairement aux différences induites par l'environnement qui, en règle générale, ne provoquent que des changements temporaires et non héréditaires du phénotype »[1]. La variabilité génétique d'une population est importante pour la biodiversité [2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variabilité génétique est soit la présence, soit la génération de différences génétiques. Elle est définie comme « la formation d'individus de génotype différent, ou la présence d'individus génotypiquement différents, contrairement aux différences induites par l'environnement qui, en règle générale, ne provoquent que des changements temporaires et non héréditaires du phénotype ». La variabilité génétique d'une population est importante pour la biodiversité .
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Variabilit%C3%A9_g%C3%A9n%C3%A9tique</t>
+          <t>Variabilité_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,18 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il existe de nombreuses sources de variabilité génétique dans une population :
 La Recombinaison homologue est une source significative de variation. Pendant la Méiose dans les organes sexués, deux Chromosome homologue s’enjambent l’un à l’autre et échangent du matériel génétique. Les chromosomes se séparent et sont prêts à contribuer dans la formation d’une progéniture. La recombinaison se fait au hasard[réf. nécessaire] et est dirigée par son propre ensemble de gènes. Étant contrôlée par les gènes signifie que la recombinaison est variable en fréquence.
-L’Immigration, l’Émigration , et la translocation (génétique) - chacun de ces derniers sont des mouvements d’un individu sortant ou entrant une population. Quand un individu vient d’une population précédemment isolée génétiquement et entre une nouvelle population, cela va augmenter la variété génétique de la prochaine génération si elle se reproduit[3].
+L’Immigration, l’Émigration , et la translocation (génétique) - chacun de ces derniers sont des mouvements d’un individu sortant ou entrant une population. Quand un individu vient d’une population précédemment isolée génétiquement et entre une nouvelle population, cela va augmenter la variété génétique de la prochaine génération si elle se reproduit.
 La Polyploïdie – avoir plus de deux chromosomes homologues, permet plus de recombinaison pendant la méiose, ce qui permet plus de variété génétique dans la descendance.
-Les centromères diffus dans les organismes Asexué où la descendance est une copie exacte du parent, il y a des sources limitées de variété génétique. Une chose qui augmente la variété est avoir des centromères diffus au lieu des Centromère localisés. Les centromères diffus permettent les Chromatide de se séparer de plusieurs façons ce qui permet au chromosome une fragmentation et la polyploïdie créant plus de variété[4].
-Les mutations contribuent à la variété génétique dans une population et peuvent avoir des effets positifs, négatifs ou neutres sur une remise en forme[5]. Cette variété peut être facilement propagée à travers une population par Sélection naturelle si la mutation augmente l’aptitude de l’individu affecté et si ses effets seront atténués/cachés si la mutation est délétère. Par contre, plus la population et sa variation génétique est petite, plus il y a des chances que les mutations récessives délétères vont apparaître causant une Dérive génétique.
+Les centromères diffus dans les organismes Asexué où la descendance est une copie exacte du parent, il y a des sources limitées de variété génétique. Une chose qui augmente la variété est avoir des centromères diffus au lieu des Centromère localisés. Les centromères diffus permettent les Chromatide de se séparer de plusieurs façons ce qui permet au chromosome une fragmentation et la polyploïdie créant plus de variété.
+Les mutations contribuent à la variété génétique dans une population et peuvent avoir des effets positifs, négatifs ou neutres sur une remise en forme. Cette variété peut être facilement propagée à travers une population par Sélection naturelle si la mutation augmente l’aptitude de l’individu affecté et si ses effets seront atténués/cachés si la mutation est délétère. Par contre, plus la population et sa variation génétique est petite, plus il y a des chances que les mutations récessives délétères vont apparaître causant une Dérive génétique.
 Les dommages de l'ADN sont très fréquents, se produisant en moyenne plus de 60 000 fois/jour et par cellule chez l'Homme en raison de processus métaboliques ou hydrolytiques, résumés dans les dommages à l'ADN (naturels) . La plupart des dommages de l'ADN sont réparés avec précision par divers mécanismes de réparation de l'ADN. Cependant, certains dommages à l'ADN subsistent et donnent lieu à des mutations.
-Il semble que la plupart des mutations spontanées résultent d'une réplication sujette aux erreurs (synthèse par trans lésion ) après une lésion de l'ADN dans le brin matrice. Par exemple, chez la levure, plus de 60 % des substitutions et délétions spontanées d'une seule paire de bases sont probablement dues à la synthèse par translésion[6]. Une autre source importante de mutation est un processus de réparation de l'ADN inexact, la jonction d'extrémités non homologues, qui est souvent utilisée pour réparer les cassures double brin de l'ADN[7]. (Voir aussi Mutation) Ainsi, il semble que les dommages à l'ADN soient la cause sous-jacente de la plupart des mutations spontanées, soit en raison de dommages antérieurs à la réplication sujettes aux erreurs, soit à cause de la réparation des dommages sujettes aux erreurs.</t>
+Il semble que la plupart des mutations spontanées résultent d'une réplication sujette aux erreurs (synthèse par trans lésion ) après une lésion de l'ADN dans le brin matrice. Par exemple, chez la levure, plus de 60 % des substitutions et délétions spontanées d'une seule paire de bases sont probablement dues à la synthèse par translésion. Une autre source importante de mutation est un processus de réparation de l'ADN inexact, la jonction d'extrémités non homologues, qui est souvent utilisée pour réparer les cassures double brin de l'ADN. (Voir aussi Mutation) Ainsi, il semble que les dommages à l'ADN soient la cause sous-jacente de la plupart des mutations spontanées, soit en raison de dommages antérieurs à la réplication sujettes aux erreurs, soit à cause de la réparation des dommages sujettes aux erreurs.</t>
         </is>
       </c>
     </row>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Variabilit%C3%A9_g%C3%A9n%C3%A9tique</t>
+          <t>Variabilité_génétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Facteurs diminuant la variabilité génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe de nombreuses sources diminuant la variabilité génétique dans une population :
 Perte d'habitat, y compris :
